--- a/L00P00 - Bestellijst/Bestelbon Techniek en Media 2022-23.xlsx
+++ b/L00P00 - Bestellijst/Bestelbon Techniek en Media 2022-23.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktr\OneDrive - Da Vinci College\Bestellingen\Bestelbon format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjan/Documents/GitHub/Onderwijs/L00P00 - Bestellijst/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7A5023-49E3-4A40-8FAA-523721B88712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Naam aanvrager:</t>
   </si>
@@ -135,12 +136,24 @@
   </si>
   <si>
     <t>https://vndsignmakers.nl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prijs Per stuk </t>
+  </si>
+  <si>
+    <t>Totaal prijs</t>
+  </si>
+  <si>
+    <t>Totaal</t>
+  </si>
+  <si>
+    <t>Van schoolvoorraad (ROOD VLAK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
@@ -168,12 +181,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -204,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -223,10 +248,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,7 +452,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>564696</xdr:colOff>
+      <xdr:colOff>156482</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>136521</xdr:rowOff>
     </xdr:to>
@@ -797,52 +826,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F16" sqref="F15:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="168" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="0.33203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="2"/>
+    <col min="6" max="6" width="14.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -856,327 +887,574 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <f>+E9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" ref="G10:G31" si="0">+E10*F10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="33" spans="2:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="11">
+        <f>+SUM(G9:G31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1"/>
-    <hyperlink ref="B42" r:id="rId2"/>
-    <hyperlink ref="B41" r:id="rId3"/>
-    <hyperlink ref="B40" r:id="rId4"/>
-    <hyperlink ref="B39" r:id="rId5"/>
-    <hyperlink ref="B38" r:id="rId6"/>
-    <hyperlink ref="B36" r:id="rId7"/>
-    <hyperlink ref="B34" r:id="rId8"/>
-    <hyperlink ref="B43" r:id="rId9"/>
-    <hyperlink ref="B44" r:id="rId10"/>
-    <hyperlink ref="B45" r:id="rId11"/>
-    <hyperlink ref="B46" r:id="rId12"/>
-    <hyperlink ref="B47" r:id="rId13"/>
-    <hyperlink ref="B48" r:id="rId14"/>
-    <hyperlink ref="B49" r:id="rId15"/>
-    <hyperlink ref="B50" r:id="rId16"/>
-    <hyperlink ref="B51" r:id="rId17"/>
-    <hyperlink ref="B52" r:id="rId18"/>
-    <hyperlink ref="B53" r:id="rId19"/>
-    <hyperlink ref="B54" r:id="rId20"/>
-    <hyperlink ref="B55" r:id="rId21"/>
-    <hyperlink ref="B56" r:id="rId22"/>
-    <hyperlink ref="B57" r:id="rId23"/>
-    <hyperlink ref="B58" r:id="rId24"/>
-    <hyperlink ref="B59" r:id="rId25"/>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B41" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B38" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B43" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B44" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B45" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B47" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B48" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B49" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B50" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B51" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B52" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B53" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B54" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B55" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B56" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B57" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B58" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B59" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId26"/>
@@ -1185,6 +1463,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049BDCB4539B22747A93EBBC84D9C5B8D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fcafa01c5c0a79b4dfa0cae9134ede1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f50aa673-efe3-45e8-b5d7-99ba37e3e1d3" xmlns:ns4="c076144c-8a22-413a-95f5-4cf3aaaf1533" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f359b0e77de70845162bcdab285a6975" ns3:_="" ns4:_="">
     <xsd:import namespace="f50aa673-efe3-45e8-b5d7-99ba37e3e1d3"/>
@@ -1393,22 +1686,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C51C575-9C93-4936-A12C-D68B0A980193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c076144c-8a22-413a-95f5-4cf3aaaf1533"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f50aa673-efe3-45e8-b5d7-99ba37e3e1d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48ED1E22-C0E6-4F0C-9E34-11268375AEC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234866AC-9576-4168-9980-00B49014963C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1425,29 +1728,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48ED1E22-C0E6-4F0C-9E34-11268375AEC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C51C575-9C93-4936-A12C-D68B0A980193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c076144c-8a22-413a-95f5-4cf3aaaf1533"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f50aa673-efe3-45e8-b5d7-99ba37e3e1d3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>